--- a/assets/template.xlsx
+++ b/assets/template.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65961\Documents\git_projects\sbf_2025\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7EC815-1B07-4528-8D30-A1FA3C1E333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E544833C-40F6-4102-AE23-BF1ADCAF1869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BdGXBkTUuzHgCfI23Dttf5lbsFkIKuiZGPm+KyEKKhpuIlQLcfb8wddWYQccBo0Gl6r24INBT2CFAEGPAocQ9g==" workbookSaltValue="cHbliFbEKzXTqEfLbX4lQg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{44DBA47A-370E-4A02-956B-779FF0AF8C99}"/>
   </bookViews>
   <sheets>
     <sheet name="2025JULY" sheetId="3" r:id="rId1"/>
     <sheet name="2025FEB" sheetId="12" r:id="rId2"/>
+    <sheet name="README" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025JULY'!$A$1:$R$168</definedName>
@@ -39,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="167">
   <si>
     <t>Price</t>
   </si>
@@ -491,6 +515,57 @@
   <si>
     <t>80A</t>
   </si>
+  <si>
+    <t>Welcome! This Excel file has been created to help potential BTO buyers make informed decisions based on data trends, unit distribution, and other key factors. This guide will walk you through how to use this file effectively.</t>
+  </si>
+  <si>
+    <t>📂 Contents of This Workbook</t>
+  </si>
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>Each sheet name represents 1 SBF exercise with details down to (project name, launch date, location, unit mix, number of units, etc.)</t>
+  </si>
+  <si>
+    <t>By uploading this back to the app, it will display graphs to help users visualise the spread of units across floors, % of units offered per project, and even date completion filter that is interactive so that users can get a  better confidence level in their desired project.</t>
+  </si>
+  <si>
+    <t>I have compiled 4 and 5 room data from the current July 2025 SBF Exercise</t>
+  </si>
+  <si>
+    <t>Towns include:</t>
+  </si>
+  <si>
+    <t>📌 Tips for BTO Buyers</t>
+  </si>
+  <si>
+    <t>Geylang</t>
+  </si>
+  <si>
+    <t>Consider location convenience, price trends, and application rates together</t>
+  </si>
+  <si>
+    <t>Woodlands</t>
+  </si>
+  <si>
+    <t>The best house is the one that is most suitable for you</t>
+  </si>
+  <si>
+    <t>Bukit Panjang</t>
+  </si>
+  <si>
+    <t>Don’t rely on one factor—use this file to weigh multiple aspects</t>
+  </si>
+  <si>
+    <t>Kallang/Whampoa</t>
+  </si>
+  <si>
+    <t>If you found this data useful, you can buy me a coffee: http://coff.ee/ceruleanxx</t>
+  </si>
+  <si>
+    <t>Choa Chu Kang</t>
+  </si>
 </sst>
 </file>
 
@@ -500,7 +575,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +606,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -664,7 +780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -672,12 +788,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -715,6 +846,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -744,8 +885,68 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10011,7 +10212,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16683,4 +16884,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA2576D-CEF7-4DF9-9F13-6149A08FC157}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="112.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="35">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="35">
+        <v>5</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="35">
+        <v>6</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="35">
+        <v>8</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="G/f9fNzhogIFWTVTtKYfFs5EvSUB2z06YC0LUjsq/h7WjpnQ+m+w0RbJq8/wWqAQJ3nRdPR4gjBXpA6X4Dm5vQ==" saltValue="fvSuLxWnxJKEyydu+B+9TA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>